--- a/tests/multialgorithm/fixtures/validation/cases/semantic/00004/00004-wc_lang.xlsx
+++ b/tests/multialgorithm/fixtures/validation/cases/semantic/00004/00004-wc_lang.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_dev_repos/wc_sim/tests/multialgorithm/fixtures/validation/cases/semantic/00004/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthur_at_sinai/gitOnMyLaptopLocal/wc_dev_repos/wc_sim/tests/multialgorithm/fixtures/validation/testing/semantic/00004/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23700" windowHeight="8140" tabRatio="989" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23700" windowHeight="8140" tabRatio="989"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="93">
   <si>
     <t>Id</t>
   </si>
@@ -293,9 +293,6 @@
     <t>test_case_00004</t>
   </si>
   <si>
-    <t>Basic two reactions involving two species in one compartment</t>
-  </si>
-  <si>
     <t>S2</t>
   </si>
   <si>
@@ -323,12 +320,6 @@
     <t>[c]: (2) S2 ==&gt; S1</t>
   </si>
   <si>
-    <t>k1 * S1[c] * compartment</t>
-  </si>
-  <si>
-    <t>k2 * S2[c] * S2[c] * compartment</t>
-  </si>
-  <si>
     <t>k1</t>
   </si>
   <si>
@@ -342,6 +333,15 @@
   </si>
   <si>
     <t>These MWs balance the reactions</t>
+  </si>
+  <si>
+    <t>k1 * S1[c]</t>
+  </si>
+  <si>
+    <t>k2 * S2[c] * S2[c]</t>
+  </si>
+  <si>
+    <t>Two reactions using two species in one compartment</t>
   </si>
 </sst>
 </file>
@@ -811,7 +811,7 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -834,7 +834,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -937,24 +937,24 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>45</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1059,7 +1059,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1119,11 +1119,14 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C3" t="s">
         <v>75</v>
       </c>
+      <c r="D3" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="E3" s="2">
         <v>0.35</v>
       </c>
@@ -1133,16 +1136,19 @@
     </row>
     <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C4" t="s">
         <v>75</v>
       </c>
+      <c r="D4" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="E4" s="2">
         <v>180</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1406,7 +1412,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="155" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1461,7 +1467,7 @@
         <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>21</v>
@@ -1543,7 +1549,7 @@
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
+    <sheetView zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
       <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
@@ -1613,15 +1619,15 @@
         <v>29</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C3" t="s">
         <v>75</v>
@@ -1637,7 +1643,7 @@
         <v>29</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1684,7 +1690,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B2" s="14">
         <v>0.15</v>
@@ -1697,7 +1703,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B3" s="10">
         <v>0</v>
@@ -1847,16 +1853,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>80</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>81</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="10">
         <v>0</v>
@@ -1868,16 +1874,16 @@
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>83</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E3" s="10">
         <v>0</v>
